--- a/data/formatted_purchase_data.xlsx
+++ b/data/formatted_purchase_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InventoryPC-1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\InventoryPC-1\Desktop\dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375E23B-61C2-4D15-BF41-511DCCCB7718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1186B2B-52C1-481C-B451-6D9557B8EABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21150" yWindow="2895" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20655" yWindow="1455" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="261">
   <si>
     <t>Ref</t>
   </si>
@@ -805,6 +805,18 @@
   </si>
   <si>
     <t>GNA80483</t>
+  </si>
+  <si>
+    <t>GNA80496</t>
+  </si>
+  <si>
+    <t>GNA80489</t>
+  </si>
+  <si>
+    <t>GNA80487</t>
+  </si>
+  <si>
+    <t>GNA80488</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E924"/>
+  <dimension ref="A1:E945"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A910" workbookViewId="0">
-      <selection activeCell="A925" sqref="A925"/>
+    <sheetView tabSelected="1" topLeftCell="A922" workbookViewId="0">
+      <selection activeCell="E945" sqref="E945"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16902,6 +16914,363 @@
         <v>17710</v>
       </c>
     </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>257</v>
+      </c>
+      <c r="B925" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C925">
+        <v>15</v>
+      </c>
+      <c r="D925">
+        <v>92</v>
+      </c>
+      <c r="E925">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>257</v>
+      </c>
+      <c r="B926" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C926">
+        <v>15</v>
+      </c>
+      <c r="D926">
+        <v>215</v>
+      </c>
+      <c r="E926">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>257</v>
+      </c>
+      <c r="B927" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C927">
+        <v>50</v>
+      </c>
+      <c r="D927">
+        <v>114</v>
+      </c>
+      <c r="E927">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>257</v>
+      </c>
+      <c r="B928" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C928">
+        <v>45</v>
+      </c>
+      <c r="D928">
+        <v>132</v>
+      </c>
+      <c r="E928">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>257</v>
+      </c>
+      <c r="B929" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C929">
+        <v>60</v>
+      </c>
+      <c r="D929">
+        <v>161</v>
+      </c>
+      <c r="E929">
+        <v>9660</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>257</v>
+      </c>
+      <c r="B930" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C930">
+        <v>45</v>
+      </c>
+      <c r="D930">
+        <v>198</v>
+      </c>
+      <c r="E930">
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>257</v>
+      </c>
+      <c r="B931" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C931">
+        <v>10</v>
+      </c>
+      <c r="D931">
+        <v>241</v>
+      </c>
+      <c r="E931">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>257</v>
+      </c>
+      <c r="B932" s="3">
+        <v>45925</v>
+      </c>
+      <c r="C932">
+        <v>30</v>
+      </c>
+      <c r="D932">
+        <v>93</v>
+      </c>
+      <c r="E932">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>258</v>
+      </c>
+      <c r="B933" s="3">
+        <v>45923</v>
+      </c>
+      <c r="C933">
+        <v>120</v>
+      </c>
+      <c r="D933">
+        <v>11.5</v>
+      </c>
+      <c r="E933">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>258</v>
+      </c>
+      <c r="B934" s="3">
+        <v>45923</v>
+      </c>
+      <c r="C934">
+        <v>300</v>
+      </c>
+      <c r="D934">
+        <v>15.24</v>
+      </c>
+      <c r="E934">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>258</v>
+      </c>
+      <c r="B935" s="3">
+        <v>45923</v>
+      </c>
+      <c r="C935">
+        <v>150</v>
+      </c>
+      <c r="D935">
+        <v>19</v>
+      </c>
+      <c r="E935">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>258</v>
+      </c>
+      <c r="B936" s="3">
+        <v>45923</v>
+      </c>
+      <c r="C936">
+        <v>220</v>
+      </c>
+      <c r="D936">
+        <v>21.03</v>
+      </c>
+      <c r="E936">
+        <v>4626.6000000000004</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>258</v>
+      </c>
+      <c r="B937" s="3">
+        <v>45923</v>
+      </c>
+      <c r="C937">
+        <v>25</v>
+      </c>
+      <c r="D937">
+        <v>21.71</v>
+      </c>
+      <c r="E937">
+        <v>542.75</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>259</v>
+      </c>
+      <c r="B938" s="3">
+        <v>45923</v>
+      </c>
+      <c r="C938">
+        <v>50</v>
+      </c>
+      <c r="D938">
+        <v>21.55</v>
+      </c>
+      <c r="E938">
+        <v>1077.5</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>259</v>
+      </c>
+      <c r="B939" s="3">
+        <v>45923</v>
+      </c>
+      <c r="C939">
+        <v>50</v>
+      </c>
+      <c r="D939">
+        <v>23</v>
+      </c>
+      <c r="E939">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>259</v>
+      </c>
+      <c r="B940" s="3">
+        <v>45923</v>
+      </c>
+      <c r="C940">
+        <v>50</v>
+      </c>
+      <c r="D940">
+        <v>25.42</v>
+      </c>
+      <c r="E940">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>259</v>
+      </c>
+      <c r="B941" s="3">
+        <v>45923</v>
+      </c>
+      <c r="C941">
+        <v>50</v>
+      </c>
+      <c r="D941">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="E941">
+        <v>991.5</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>260</v>
+      </c>
+      <c r="B942" s="3">
+        <v>45923</v>
+      </c>
+      <c r="C942">
+        <v>130</v>
+      </c>
+      <c r="D942">
+        <v>21.55</v>
+      </c>
+      <c r="E942">
+        <v>2801.5</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>260</v>
+      </c>
+      <c r="B943" s="3">
+        <v>45923</v>
+      </c>
+      <c r="C943">
+        <v>50</v>
+      </c>
+      <c r="D943">
+        <v>23</v>
+      </c>
+      <c r="E943">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>260</v>
+      </c>
+      <c r="B944" s="3">
+        <v>45923</v>
+      </c>
+      <c r="C944">
+        <v>98</v>
+      </c>
+      <c r="D944">
+        <v>25.42</v>
+      </c>
+      <c r="E944">
+        <v>2491.16</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>260</v>
+      </c>
+      <c r="B945" s="3">
+        <v>45923</v>
+      </c>
+      <c r="C945">
+        <v>50</v>
+      </c>
+      <c r="D945">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="E945">
+        <v>1983</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E918">
